--- a/sample_students.xlsx
+++ b/sample_students.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>saphine</t>
+          <t>sapphire</t>
         </is>
       </c>
     </row>

--- a/sample_students.xlsx
+++ b/sample_students.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>agat</t>
+          <t>agate</t>
         </is>
       </c>
     </row>
